--- a/myapp/files/9_MethodComparePercent/Scenario 322.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 322.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10943</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.59911736554072</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>13666</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.99703352988025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12251</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.79025741069537</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13309</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.9448645726018</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.37931034482759</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>11318</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.65391669041304</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.37931034482759</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10857</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.58655005370334</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14452</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.11189291481262</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.41379310344828</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>19320</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.8232612174218</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.75862068965517</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>26619</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.88987527673659</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.13793103448276</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>522</v>
+        <v>19243</v>
       </c>
       <c r="F11" t="n">
-        <v>0.597424892703863</v>
+        <v>2.81200908938135</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>2.27272727272727</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9469</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.38371948590927</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3983</v>
+        <v>32418</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5585121602289</v>
+        <v>4.73729203656211</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>4.54545454545455</v>
+        <v>3.79310344827586</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9433</v>
+        <v>54069</v>
       </c>
       <c r="F14" t="n">
-        <v>10.7959942775393</v>
+        <v>7.90118585739024</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>9.09090909090909</v>
+        <v>6.55172413793103</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7329</v>
+        <v>51682</v>
       </c>
       <c r="F15" t="n">
-        <v>8.38798283261803</v>
+        <v>7.55236988813631</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>13.6363636363636</v>
+        <v>8.96551724137931</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>11186</v>
+        <v>43161</v>
       </c>
       <c r="F16" t="n">
-        <v>12.8022889842632</v>
+        <v>6.30718309550426</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,16 +1125,16 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>6.81818181818182</v>
+        <v>5.86206896551724</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>4.47761194029851</v>
+        <v>5.97014925373134</v>
       </c>
     </row>
     <row r="17">
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9747</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.42434405208128</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>23367</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.41465553144385</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.10344827586207</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>40145</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5.86645039199784</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.20689655172414</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3159</v>
+        <v>47018</v>
       </c>
       <c r="F20" t="n">
-        <v>3.61545064377682</v>
+        <v>6.87081241825767</v>
       </c>
       <c r="G20" t="n">
         <v>24</v>
@@ -1277,10 +1277,10 @@
         <v>35.8208955223881</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="J20" t="n">
-        <v>4.54545454545455</v>
+        <v>10.6896551724138</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1188</v>
+        <v>60323</v>
       </c>
       <c r="F21" t="n">
-        <v>1.35965665236052</v>
+        <v>8.8150924647275</v>
       </c>
       <c r="G21" t="n">
         <v>13</v>
@@ -1315,16 +1315,16 @@
         <v>19.4029850746269</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.27272727272727</v>
+        <v>8.62068965517241</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>14.9253731343284</v>
+        <v>13.4328358208955</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2132</v>
+        <v>8089</v>
       </c>
       <c r="F22" t="n">
-        <v>2.44005722460658</v>
+        <v>1.18205797037914</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.54545454545455</v>
+        <v>1.37931034482759</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>6804</v>
+        <v>19215</v>
       </c>
       <c r="F23" t="n">
-        <v>7.78712446351931</v>
+        <v>2.80791740645755</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.54545454545455</v>
+        <v>2.06896551724138</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>9575</v>
+        <v>26621</v>
       </c>
       <c r="F24" t="n">
-        <v>10.9585121602289</v>
+        <v>3.89016753980258</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1429,10 +1429,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>9.09090909090909</v>
+        <v>4.13793103448276</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>10837</v>
+        <v>37375</v>
       </c>
       <c r="F25" t="n">
-        <v>12.402861230329</v>
+        <v>5.46166604560765</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>18.1818181818182</v>
+        <v>8.62068965517241</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>21227</v>
+        <v>69638</v>
       </c>
       <c r="F26" t="n">
-        <v>24.2941344778255</v>
+        <v>10.1763076945559</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -1505,10 +1505,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>20.4545454545455</v>
+        <v>8.96551724137931</v>
       </c>
       <c r="K26" t="n">
         <v>11</v>
